--- a/MSR_Data.xlsx
+++ b/MSR_Data.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cisco-my.sharepoint.com/personal/prroycho_cisco_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cisco-my.sharepoint.com/personal/prroycho_cisco_com/Documents/Documents/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="14_{05DAAA0F-FEA4-4CCC-9FDD-6C3838EC3A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17E3F6A8-A256-4781-ABDF-2D8BB67100AD}"/>
+  <xr:revisionPtr revIDLastSave="418" documentId="14_{05DAAA0F-FEA4-4CCC-9FDD-6C3838EC3A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A515AC1-D25E-41C0-929A-BAEF6C11ECE6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{7E95B5F9-C299-4624-8624-2BE5C184F094}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="7" xr2:uid="{7E95B5F9-C299-4624-8624-2BE5C184F094}"/>
   </bookViews>
   <sheets>
     <sheet name="CMSP Trending" sheetId="1" r:id="rId1"/>
     <sheet name="Remedy Ticket Trending" sheetId="2" r:id="rId2"/>
-    <sheet name="CEWA" sheetId="5" r:id="rId3"/>
-    <sheet name="Changes" sheetId="3" r:id="rId4"/>
-    <sheet name="Call queue hygiene" sheetId="8" r:id="rId5"/>
-    <sheet name="Monthly Audits" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId3"/>
+    <sheet name="CEWA" sheetId="5" r:id="rId4"/>
+    <sheet name="Changes" sheetId="3" r:id="rId5"/>
+    <sheet name="Call queue hygiene" sheetId="8" r:id="rId6"/>
+    <sheet name="Monthly Audits" sheetId="6" r:id="rId7"/>
+    <sheet name="CRT Audit Score" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="33">
   <si>
     <t>Month</t>
   </si>
@@ -97,15 +100,6 @@
     <t>Answered Within SLA</t>
   </si>
   <si>
-    <t>Nov’24</t>
-  </si>
-  <si>
-    <t>Dec’24</t>
-  </si>
-  <si>
-    <t>Jan’25</t>
-  </si>
-  <si>
     <t>Mar'25</t>
   </si>
   <si>
@@ -114,12 +108,48 @@
   <si>
     <t>May'25</t>
   </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>Resolved Percentage</t>
+  </si>
+  <si>
+    <t>EMEA Increase %</t>
+  </si>
+  <si>
+    <t>AMRS Increase %</t>
+  </si>
+  <si>
+    <t>APAC Increase %</t>
+  </si>
+  <si>
+    <t>Jun'25</t>
+  </si>
+  <si>
+    <t>Aug'24</t>
+  </si>
+  <si>
+    <t>Sep'24</t>
+  </si>
+  <si>
+    <t>AVG SCORE in %</t>
+  </si>
+  <si>
+    <t>%Tickets Audited</t>
+  </si>
+  <si>
+    <t>Total Ticket</t>
+  </si>
+  <si>
+    <t>Jul'25</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,8 +180,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,8 +225,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor theme="0" tint="-0.34998626667073579"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -343,12 +398,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -410,16 +557,54 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{DA2E6C90-5103-445D-979F-FF953892C393}"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="33">
     <dxf>
       <font>
         <b/>
@@ -913,6 +1098,40 @@
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1007,6 +1226,42 @@
         <right/>
         <top/>
         <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -1076,9 +1331,2380 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>APAC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$2:$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Oct'24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nov'24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dec'24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jan'25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Feb'25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mar'25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Apr'25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>May'25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A494-4B4A-BF76-FE1EF05C6FE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1533481120"/>
+        <c:axId val="1533481600"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>APAC Increase %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$2:$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Oct'24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nov'24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dec'24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jan'25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Feb'25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mar'25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Apr'25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>May'25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A494-4B4A-BF76-FE1EF05C6FE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1533481120"/>
+        <c:axId val="1533481600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1533481120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1533481600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1533481600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1533481120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Ticket</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> Audit Trend</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CRT Audit Score'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Ticket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CRT Audit Score'!$A$16:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Aug'24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sep'24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oct'24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nov'24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dec'24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jan'25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Feb'25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mar'25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Apr'25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>May'25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Jun'25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CRT Audit Score'!$B$16:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1172</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>807</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>852</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-33F4-4537-8441-8F06FC7CE8B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="545405952"/>
+        <c:axId val="545406432"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CRT Audit Score'!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%Tickets Audited</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="3.7702127659574466E-2"/>
+                      <c:h val="5.0676699239233576E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-33F4-4537-8441-8F06FC7CE8B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CRT Audit Score'!$A$16:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Aug'24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sep'24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oct'24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nov'24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dec'24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jan'25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Feb'25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mar'25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Apr'25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>May'25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Jun'25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CRT Audit Score'!$C$16:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>26.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-33F4-4537-8441-8F06FC7CE8B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="515307648"/>
+        <c:axId val="515314848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="545405952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="545406432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="545406432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="545405952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="515314848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515307648"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="515307648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="515314848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E89F1F4-44FA-4AF1-1103-BB3CF1DA197F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E4C14D-11A2-F385-53E7-C709A42E3353}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2BCBA4AC-465A-425A-A7D0-9E8A354EEF3F}" name="Table4" displayName="Table4" ref="A1:F9" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28">
-  <autoFilter ref="A1:F9" xr:uid="{2BCBA4AC-465A-425A-A7D0-9E8A354EEF3F}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2BCBA4AC-465A-425A-A7D0-9E8A354EEF3F}" name="Table4" displayName="Table4" ref="A1:G11" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30">
+  <autoFilter ref="A1:G11" xr:uid="{2BCBA4AC-465A-425A-A7D0-9E8A354EEF3F}">
     <filterColumn colId="0">
       <filters>
         <filter val="Feb'25"/>
@@ -1087,25 +3713,31 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F1F28815-6DFF-4FB5-936C-7D88B9C42A73}" name="Month" dataDxfId="27"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F1F28815-6DFF-4FB5-936C-7D88B9C42A73}" name="Month" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{E199CB52-339A-4D5D-B04F-3F4B8EEEE3D7}" name="Submitted Overall"/>
     <tableColumn id="3" xr3:uid="{A5ADFA23-E38A-4D96-A0A9-25945B28A1E6}" name="Resolved Overall"/>
-    <tableColumn id="4" xr3:uid="{22ABA567-146D-404B-9167-CFC95E6A3C78}" name="APAC" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{721809C4-2F39-4C24-9A4D-3BFC3F9794AF}" name="EMEA" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{5114AC00-BCF8-42A7-8B71-D26E6F1C8566}" name="AMRS" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{E1AD942C-BDB8-4D2D-8CF3-E6E675273702}" name="Resolved Percentage" dataDxfId="28">
+      <calculatedColumnFormula>ROUND((Table4[[#This Row],[Resolved Overall]]/Table4[[#This Row],[Submitted Overall]]*100),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{22ABA567-146D-404B-9167-CFC95E6A3C78}" name="APAC" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{721809C4-2F39-4C24-9A4D-3BFC3F9794AF}" name="EMEA" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{5114AC00-BCF8-42A7-8B71-D26E6F1C8566}" name="AMRS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E8DB9C83-61D0-4DE3-BC86-53C22458E37D}" name="Table5" displayName="Table5" ref="A1:F9" totalsRowShown="0" dataDxfId="23" tableBorderDxfId="22">
-  <autoFilter ref="A1:F9" xr:uid="{E8DB9C83-61D0-4DE3-BC86-53C22458E37D}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{033A5B78-0CDA-4FEC-B319-6DEDA92EB56D}" name="Month" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{CD7ABF25-A5E6-4508-B53F-A84D68C36E22}" name="Submitted Overall" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{916FF64D-7F9F-4795-93C2-342DB9AB5769}" name="Resolved Overall" dataDxfId="19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E8DB9C83-61D0-4DE3-BC86-53C22458E37D}" name="Table5" displayName="Table5" ref="A1:G11" totalsRowShown="0" dataDxfId="24" tableBorderDxfId="23">
+  <autoFilter ref="A1:G11" xr:uid="{E8DB9C83-61D0-4DE3-BC86-53C22458E37D}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{033A5B78-0CDA-4FEC-B319-6DEDA92EB56D}" name="Month" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{CD7ABF25-A5E6-4508-B53F-A84D68C36E22}" name="Submitted Overall" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{916FF64D-7F9F-4795-93C2-342DB9AB5769}" name="Resolved Overall" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{EFEB2F10-314B-4137-9E2F-AC85A309DF0F}" name="Resolved Percentage" dataDxfId="19">
+      <calculatedColumnFormula>ROUND((Table5[[#This Row],[Resolved Overall]]/Table5[[#This Row],[Submitted Overall]]*100),0)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="4" xr3:uid="{DD86CCE1-38E6-4436-A8D1-7995F1C76C47}" name="APAC" dataDxfId="18"/>
     <tableColumn id="5" xr3:uid="{BD94AFC1-C71C-47DC-ACA0-8FE6CBE003FF}" name="EMEA" dataDxfId="17"/>
     <tableColumn id="6" xr3:uid="{98EE06DB-9676-4A9A-998C-A4D874DFD294}" name="AMRS" dataDxfId="16"/>
@@ -1115,8 +3747,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{94637E1D-CCB3-4F24-A1EA-D404D29FC61E}" name="Table6" displayName="Table6" ref="A1:B9" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="A1:B9" xr:uid="{94637E1D-CCB3-4F24-A1EA-D404D29FC61E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{94637E1D-CCB3-4F24-A1EA-D404D29FC61E}" name="Table6" displayName="Table6" ref="A1:B11" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="A1:B11" xr:uid="{94637E1D-CCB3-4F24-A1EA-D404D29FC61E}">
     <filterColumn colId="0">
       <filters>
         <filter val="Feb'25"/>
@@ -1134,8 +3766,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{20C6DBE2-2534-4721-BC0E-9A700F2E979A}" name="Table8" displayName="Table8" ref="A1:E9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:E9" xr:uid="{20C6DBE2-2534-4721-BC0E-9A700F2E979A}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{20C6DBE2-2534-4721-BC0E-9A700F2E979A}" name="Table8" displayName="Table8" ref="A1:E11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E11" xr:uid="{20C6DBE2-2534-4721-BC0E-9A700F2E979A}">
     <filterColumn colId="0">
       <filters>
         <filter val="Feb'25"/>
@@ -1472,10 +4104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93F38CD-DDCB-4A3B-AFD4-7A5742182B0C}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1483,9 +4115,10 @@
     <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.08984375" customWidth="1"/>
     <col min="3" max="3" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1496,16 +4129,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1516,16 +4152,20 @@
         <v>1788</v>
       </c>
       <c r="D2" s="7">
+        <f>ROUND((Table4[[#This Row],[Resolved Overall]]/Table4[[#This Row],[Submitted Overall]]*100),0)</f>
+        <v>98</v>
+      </c>
+      <c r="E2" s="7">
         <v>227</v>
       </c>
-      <c r="E2" s="7">
+      <c r="F2" s="7">
         <v>118</v>
       </c>
-      <c r="F2" s="7">
+      <c r="G2" s="7">
         <v>1475</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1536,16 +4176,20 @@
         <v>1551</v>
       </c>
       <c r="D3" s="7">
+        <f>ROUND((Table4[[#This Row],[Resolved Overall]]/Table4[[#This Row],[Submitted Overall]]*100),0)</f>
+        <v>91</v>
+      </c>
+      <c r="E3" s="7">
         <v>197</v>
       </c>
-      <c r="E3" s="7">
+      <c r="F3" s="7">
         <v>94</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3" s="7">
         <v>1408</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -1556,16 +4200,20 @@
         <v>1517</v>
       </c>
       <c r="D4" s="7">
+        <f>ROUND((Table4[[#This Row],[Resolved Overall]]/Table4[[#This Row],[Submitted Overall]]*100),0)</f>
+        <v>95</v>
+      </c>
+      <c r="E4" s="7">
         <v>152</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4" s="7">
         <v>111</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G4" s="7">
         <v>1334</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1576,16 +4224,20 @@
         <v>1775</v>
       </c>
       <c r="D5" s="7">
+        <f>ROUND((Table4[[#This Row],[Resolved Overall]]/Table4[[#This Row],[Submitted Overall]]*100),0)</f>
+        <v>99</v>
+      </c>
+      <c r="E5" s="7">
         <v>320</v>
       </c>
-      <c r="E5" s="7">
+      <c r="F5" s="7">
         <v>120</v>
       </c>
-      <c r="F5" s="7">
+      <c r="G5" s="7">
         <v>1350</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -1596,18 +4248,22 @@
         <v>1707</v>
       </c>
       <c r="D6" s="7">
+        <f>ROUND((Table4[[#This Row],[Resolved Overall]]/Table4[[#This Row],[Submitted Overall]]*100),0)</f>
+        <v>98</v>
+      </c>
+      <c r="E6" s="7">
         <v>221</v>
       </c>
-      <c r="E6" s="7">
+      <c r="F6" s="7">
         <v>133</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G6" s="7">
         <v>1395</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="7">
         <v>2275</v>
@@ -1616,18 +4272,22 @@
         <v>2163</v>
       </c>
       <c r="D7" s="7">
+        <f>ROUND((Table4[[#This Row],[Resolved Overall]]/Table4[[#This Row],[Submitted Overall]]*100),0)</f>
+        <v>95</v>
+      </c>
+      <c r="E7" s="7">
         <v>288</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7" s="7">
         <v>466</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7" s="7">
         <v>1521</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="7">
         <v>1926</v>
@@ -1636,18 +4296,22 @@
         <v>1904</v>
       </c>
       <c r="D8" s="7">
+        <f>ROUND((Table4[[#This Row],[Resolved Overall]]/Table4[[#This Row],[Submitted Overall]]*100),0)</f>
+        <v>99</v>
+      </c>
+      <c r="E8" s="7">
         <v>180</v>
       </c>
-      <c r="E8" s="7">
+      <c r="F8" s="7">
         <v>323</v>
       </c>
-      <c r="F8" s="7">
+      <c r="G8" s="7">
         <v>1423</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="7">
         <v>2116</v>
@@ -1656,18 +4320,70 @@
         <v>2056</v>
       </c>
       <c r="D9" s="7">
-        <v>248</v>
+        <f>ROUND((Table4[[#This Row],[Resolved Overall]]/Table4[[#This Row],[Submitted Overall]]*100),0)</f>
+        <v>97</v>
       </c>
       <c r="E9" s="7">
-        <v>450</v>
+        <v>203</v>
       </c>
       <c r="F9" s="7">
-        <v>1418</v>
+        <v>281</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="7">
+        <v>4105</v>
+      </c>
+      <c r="C10" s="7">
+        <v>4007</v>
+      </c>
+      <c r="D10" s="7">
+        <f>ROUND((Table4[[#This Row],[Resolved Overall]]/Table4[[#This Row],[Submitted Overall]]*100),0)</f>
+        <v>98</v>
+      </c>
+      <c r="E10" s="7">
+        <v>138</v>
+      </c>
+      <c r="F10" s="7">
+        <v>117</v>
+      </c>
+      <c r="G10" s="7">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2027</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2010</v>
+      </c>
+      <c r="D11" s="7">
+        <f>ROUND((Table4[[#This Row],[Resolved Overall]]/Table4[[#This Row],[Submitted Overall]]*100),0)</f>
+        <v>99</v>
+      </c>
+      <c r="E11" s="7">
+        <v>242</v>
+      </c>
+      <c r="F11" s="7">
+        <v>212</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1573</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 Cisco Confidential</oddFooter>
   </headerFooter>
@@ -1679,20 +4395,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E26570-0E07-4015-ACD0-E9D2901C61FE}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.36328125" customWidth="1"/>
     <col min="2" max="2" width="17.90625" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="3" max="4" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1703,16 +4419,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1723,16 +4442,20 @@
         <v>1182</v>
       </c>
       <c r="D2" s="7">
+        <f>ROUND((Table5[[#This Row],[Resolved Overall]]/Table5[[#This Row],[Submitted Overall]]*100),0)</f>
+        <v>101</v>
+      </c>
+      <c r="E2" s="7">
         <v>112</v>
       </c>
-      <c r="E2" s="7">
+      <c r="F2" s="7">
         <v>34</v>
       </c>
-      <c r="F2" s="7">
+      <c r="G2" s="7">
         <v>1027</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1743,16 +4466,20 @@
         <v>839</v>
       </c>
       <c r="D3" s="7">
+        <f>ROUND((Table5[[#This Row],[Resolved Overall]]/Table5[[#This Row],[Submitted Overall]]*100),0)</f>
+        <v>104</v>
+      </c>
+      <c r="E3" s="7">
         <v>113</v>
       </c>
-      <c r="E3" s="7">
+      <c r="F3" s="7">
         <v>59</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3" s="7">
         <v>633</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -1763,16 +4490,20 @@
         <v>307</v>
       </c>
       <c r="D4" s="7">
+        <f>ROUND((Table5[[#This Row],[Resolved Overall]]/Table5[[#This Row],[Submitted Overall]]*100),0)</f>
+        <v>42</v>
+      </c>
+      <c r="E4" s="7">
         <v>82</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4" s="7">
         <v>47</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G4" s="7">
         <v>563</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1783,16 +4514,20 @@
         <v>855</v>
       </c>
       <c r="D5" s="7">
+        <f>ROUND((Table5[[#This Row],[Resolved Overall]]/Table5[[#This Row],[Submitted Overall]]*100),0)</f>
+        <v>99</v>
+      </c>
+      <c r="E5" s="7">
         <v>125</v>
       </c>
-      <c r="E5" s="7">
+      <c r="F5" s="7">
         <v>65</v>
       </c>
-      <c r="F5" s="7">
+      <c r="G5" s="7">
         <v>670</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -1803,18 +4538,22 @@
         <v>860</v>
       </c>
       <c r="D6" s="7">
-        <v>110</v>
+        <f>ROUND((Table5[[#This Row],[Resolved Overall]]/Table5[[#This Row],[Submitted Overall]]*100),0)</f>
+        <v>98</v>
       </c>
       <c r="E6" s="7">
         <v>110</v>
       </c>
       <c r="F6" s="7">
+        <v>110</v>
+      </c>
+      <c r="G6" s="7">
         <v>661</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="7">
         <v>1003</v>
@@ -1823,18 +4562,22 @@
         <v>998</v>
       </c>
       <c r="D7" s="7">
+        <f>ROUND((Table5[[#This Row],[Resolved Overall]]/Table5[[#This Row],[Submitted Overall]]*100),0)</f>
+        <v>100</v>
+      </c>
+      <c r="E7" s="7">
         <v>113</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7" s="7">
         <v>79</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7" s="7">
         <v>811</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="18">
         <v>807</v>
@@ -1843,18 +4586,22 @@
         <v>829</v>
       </c>
       <c r="D8" s="18">
+        <f>ROUND((Table5[[#This Row],[Resolved Overall]]/Table5[[#This Row],[Submitted Overall]]*100),0)</f>
+        <v>103</v>
+      </c>
+      <c r="E8" s="18">
         <v>90</v>
       </c>
-      <c r="E8" s="18">
+      <c r="F8" s="18">
         <v>56</v>
       </c>
-      <c r="F8" s="18">
+      <c r="G8" s="18">
         <v>661</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="18">
         <v>852</v>
@@ -1863,13 +4610,65 @@
         <v>850</v>
       </c>
       <c r="D9" s="18">
+        <f>ROUND((Table5[[#This Row],[Resolved Overall]]/Table5[[#This Row],[Submitted Overall]]*100),0)</f>
+        <v>100</v>
+      </c>
+      <c r="E9" s="18">
         <v>96</v>
       </c>
-      <c r="E9" s="18">
-        <v>141</v>
-      </c>
       <c r="F9" s="18">
-        <v>615</v>
+        <v>60</v>
+      </c>
+      <c r="G9" s="18">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="18">
+        <v>771</v>
+      </c>
+      <c r="C10" s="18">
+        <v>785</v>
+      </c>
+      <c r="D10" s="18">
+        <f>ROUND((Table5[[#This Row],[Resolved Overall]]/Table5[[#This Row],[Submitted Overall]]*100),0)</f>
+        <v>102</v>
+      </c>
+      <c r="E10" s="18">
+        <v>112</v>
+      </c>
+      <c r="F10" s="18">
+        <v>41</v>
+      </c>
+      <c r="G10" s="18">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="18">
+        <v>959</v>
+      </c>
+      <c r="C11" s="18">
+        <v>942</v>
+      </c>
+      <c r="D11" s="18">
+        <f>ROUND((Table5[[#This Row],[Resolved Overall]]/Table5[[#This Row],[Submitted Overall]]*100),0)</f>
+        <v>98</v>
+      </c>
+      <c r="E11" s="18">
+        <v>104</v>
+      </c>
+      <c r="F11" s="18">
+        <v>48</v>
+      </c>
+      <c r="G11" s="18">
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -1884,11 +4683,377 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08053ACD-E9FE-4B88-8B93-CC1CC4043F94}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DE90A3-F9C6-44E6-966B-D2247402EB02}">
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G1" sqref="G1:I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="23">
+        <v>1172</v>
+      </c>
+      <c r="C2" s="23">
+        <v>1182</v>
+      </c>
+      <c r="D2" s="31">
+        <f>C2/B2</f>
+        <v>1.0085324232081911</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="23">
+        <v>112</v>
+      </c>
+      <c r="I2" s="23">
+        <v>0</v>
+      </c>
+      <c r="J2" s="23">
+        <v>34</v>
+      </c>
+      <c r="K2" s="23">
+        <v>0</v>
+      </c>
+      <c r="L2" s="23">
+        <v>1027</v>
+      </c>
+      <c r="M2" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="25">
+        <v>805</v>
+      </c>
+      <c r="C3" s="25">
+        <v>839</v>
+      </c>
+      <c r="D3" s="31">
+        <f t="shared" ref="D3:D9" si="0">C3/B3</f>
+        <v>1.0422360248447204</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="25">
+        <v>113</v>
+      </c>
+      <c r="I3" s="25">
+        <f>ROUND((H3-H2)/H2*100,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="25">
+        <v>59</v>
+      </c>
+      <c r="K3" s="25">
+        <f>ROUND((J3-J2)/J2*100,0)</f>
+        <v>74</v>
+      </c>
+      <c r="L3" s="25">
+        <v>633</v>
+      </c>
+      <c r="M3" s="25">
+        <f>ROUND((L3-L2)/L2*100,0)</f>
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="23">
+        <v>734</v>
+      </c>
+      <c r="C4" s="23">
+        <v>307</v>
+      </c>
+      <c r="D4" s="31">
+        <f t="shared" si="0"/>
+        <v>0.41825613079019075</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="23">
+        <v>82</v>
+      </c>
+      <c r="I4" s="25">
+        <f t="shared" ref="I4:I9" si="1">ROUND((H4-H3)/H3*100,0)</f>
+        <v>-27</v>
+      </c>
+      <c r="J4" s="23">
+        <v>47</v>
+      </c>
+      <c r="K4" s="25">
+        <f t="shared" ref="K4:K9" si="2">ROUND((J4-J3)/J3*100,0)</f>
+        <v>-20</v>
+      </c>
+      <c r="L4" s="23">
+        <v>563</v>
+      </c>
+      <c r="M4" s="25">
+        <f t="shared" ref="M4:M9" si="3">ROUND((L4-L3)/L3*100,0)</f>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="25">
+        <v>860</v>
+      </c>
+      <c r="C5" s="25">
+        <v>855</v>
+      </c>
+      <c r="D5" s="31">
+        <f t="shared" si="0"/>
+        <v>0.9941860465116279</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="25">
+        <v>125</v>
+      </c>
+      <c r="I5" s="25">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="J5" s="25">
+        <v>65</v>
+      </c>
+      <c r="K5" s="25">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="L5" s="25">
+        <v>670</v>
+      </c>
+      <c r="M5" s="25">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="23">
+        <v>881</v>
+      </c>
+      <c r="C6" s="23">
+        <v>860</v>
+      </c>
+      <c r="D6" s="31">
+        <f t="shared" si="0"/>
+        <v>0.97616345062429055</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="23">
+        <v>110</v>
+      </c>
+      <c r="I6" s="25">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="J6" s="23">
+        <v>110</v>
+      </c>
+      <c r="K6" s="25">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="L6" s="23">
+        <v>661</v>
+      </c>
+      <c r="M6" s="25">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="25">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="25">
+        <v>998</v>
+      </c>
+      <c r="D7" s="31">
+        <f t="shared" si="0"/>
+        <v>0.99501495513459626</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="25">
+        <v>113</v>
+      </c>
+      <c r="I7" s="25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J7" s="25">
+        <v>79</v>
+      </c>
+      <c r="K7" s="25">
+        <f t="shared" si="2"/>
+        <v>-28</v>
+      </c>
+      <c r="L7" s="25">
+        <v>811</v>
+      </c>
+      <c r="M7" s="25">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="27">
+        <v>807</v>
+      </c>
+      <c r="C8" s="27">
+        <v>829</v>
+      </c>
+      <c r="D8" s="31">
+        <f t="shared" si="0"/>
+        <v>1.0272614622057001</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="27">
+        <v>90</v>
+      </c>
+      <c r="I8" s="25">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
+      <c r="J8" s="27">
+        <v>56</v>
+      </c>
+      <c r="K8" s="25">
+        <f t="shared" si="2"/>
+        <v>-29</v>
+      </c>
+      <c r="L8" s="27">
+        <v>661</v>
+      </c>
+      <c r="M8" s="25">
+        <f t="shared" si="3"/>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="29">
+        <v>852</v>
+      </c>
+      <c r="C9" s="29">
+        <v>850</v>
+      </c>
+      <c r="D9" s="31">
+        <f t="shared" si="0"/>
+        <v>0.99765258215962438</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="29">
+        <v>96</v>
+      </c>
+      <c r="I9" s="25">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J9" s="29">
+        <v>60</v>
+      </c>
+      <c r="K9" s="25">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="L9" s="29">
+        <v>696</v>
+      </c>
+      <c r="M9" s="25">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08053ACD-E9FE-4B88-8B93-CC1CC4043F94}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1943,7 +5108,7 @@
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="14">
         <v>37</v>
@@ -1951,195 +5116,34 @@
     </row>
     <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="14">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="14">
         <v>26</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 Cisco Confidential</oddFooter>
-  </headerFooter>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3802D6-8EE1-45D6-934F-EA1A6C06992D}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="10.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8">
-        <v>27</v>
-      </c>
-      <c r="C2" s="8">
-        <v>6</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="8">
-        <v>25</v>
-      </c>
-      <c r="C3" s="8">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8">
-        <v>11</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
-        <v>3</v>
-      </c>
-      <c r="E4" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="8">
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="14">
         <v>24</v>
-      </c>
-      <c r="C5" s="8">
-        <v>4</v>
-      </c>
-      <c r="D5" s="8">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="8">
-        <v>14</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8">
-        <v>2</v>
-      </c>
-      <c r="E6" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="16">
-        <v>36</v>
-      </c>
-      <c r="C7" s="16">
-        <v>13</v>
-      </c>
-      <c r="D7" s="16">
-        <v>6</v>
-      </c>
-      <c r="E7" s="14">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="16">
-        <v>31</v>
-      </c>
-      <c r="C8" s="16">
-        <v>0</v>
-      </c>
-      <c r="D8" s="16">
-        <v>5</v>
-      </c>
-      <c r="E8" s="14">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="16">
-        <v>34</v>
-      </c>
-      <c r="C9" s="16">
-        <v>2</v>
-      </c>
-      <c r="D9" s="16">
-        <v>7</v>
-      </c>
-      <c r="E9" s="14">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2154,11 +5158,222 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2580D715-A4FE-4E2A-9E38-5C8B267304AE}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3802D6-8EE1-45D6-934F-EA1A6C06992D}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="8">
+        <v>27</v>
+      </c>
+      <c r="C2" s="8">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8">
+        <v>25</v>
+      </c>
+      <c r="C3" s="8">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8">
+        <v>24</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="16">
+        <v>36</v>
+      </c>
+      <c r="C7" s="16">
+        <v>13</v>
+      </c>
+      <c r="D7" s="16">
+        <v>6</v>
+      </c>
+      <c r="E7" s="14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="16">
+        <v>31</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
+        <v>5</v>
+      </c>
+      <c r="E8" s="14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="16">
+        <v>34</v>
+      </c>
+      <c r="C9" s="16">
+        <v>2</v>
+      </c>
+      <c r="D9" s="16">
+        <v>7</v>
+      </c>
+      <c r="E9" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="16">
+        <v>23</v>
+      </c>
+      <c r="C10" s="16">
+        <v>2</v>
+      </c>
+      <c r="D10" s="16">
+        <v>5</v>
+      </c>
+      <c r="E10" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="16">
+        <v>19</v>
+      </c>
+      <c r="C11" s="16">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16">
+        <v>6</v>
+      </c>
+      <c r="E11" s="14">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 Cisco Confidential</oddFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2580D715-A4FE-4E2A-9E38-5C8B267304AE}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2203,7 +5418,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>196</v>
@@ -2220,7 +5435,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>188</v>
@@ -2237,7 +5452,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>229</v>
@@ -2271,7 +5486,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>287</v>
@@ -2288,7 +5503,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>284</v>
@@ -2305,33 +5520,68 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="21">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1">
         <v>266</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="1">
         <v>9</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="1">
         <v>6</v>
       </c>
       <c r="E9" s="20">
         <v>0.98</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1">
+        <v>192</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="34">
+        <v>273</v>
+      </c>
+      <c r="C11" s="34">
+        <v>13</v>
+      </c>
+      <c r="D11" s="34">
+        <v>4</v>
+      </c>
+      <c r="E11" s="35">
+        <v>0.96</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66377AEA-1D3F-4C3B-8738-8D28C3E1C295}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2389,7 +5639,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>199</v>
@@ -2397,23 +5647,35 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="21">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1">
         <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="21">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1">
         <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="34">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2421,4 +5683,365 @@
     <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 Cisco Confidential</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2426A3E-994F-4B60-981B-4F75AB67D8D8}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1">
+        <v>281</v>
+      </c>
+      <c r="C2" s="1">
+        <v>95.48</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1064</v>
+      </c>
+      <c r="E2" s="1">
+        <v>26.41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1">
+        <v>288</v>
+      </c>
+      <c r="C3" s="1">
+        <v>95.78</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1119</v>
+      </c>
+      <c r="E3" s="1">
+        <v>25.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>261</v>
+      </c>
+      <c r="C4" s="1">
+        <v>96.28</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1172</v>
+      </c>
+      <c r="E4" s="1">
+        <v>22.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>245</v>
+      </c>
+      <c r="C5" s="1">
+        <v>97.83</v>
+      </c>
+      <c r="D5" s="1">
+        <v>805</v>
+      </c>
+      <c r="E5" s="1">
+        <v>30.43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>218</v>
+      </c>
+      <c r="C6" s="1">
+        <v>98.61</v>
+      </c>
+      <c r="D6" s="1">
+        <v>734</v>
+      </c>
+      <c r="E6" s="1">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>201</v>
+      </c>
+      <c r="C7" s="1">
+        <v>98</v>
+      </c>
+      <c r="D7" s="1">
+        <v>860</v>
+      </c>
+      <c r="E7" s="1">
+        <v>23.37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>200</v>
+      </c>
+      <c r="C8" s="1">
+        <v>95.58</v>
+      </c>
+      <c r="D8" s="1">
+        <v>881</v>
+      </c>
+      <c r="E8" s="1">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1">
+        <v>199</v>
+      </c>
+      <c r="C9" s="1">
+        <v>99.35</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1003</v>
+      </c>
+      <c r="E9" s="1">
+        <v>19.84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1">
+        <v>189</v>
+      </c>
+      <c r="C10" s="1">
+        <v>97.24</v>
+      </c>
+      <c r="D10" s="1">
+        <v>807</v>
+      </c>
+      <c r="E10" s="1">
+        <v>23.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1">
+        <v>217</v>
+      </c>
+      <c r="C11" s="1">
+        <v>94.68</v>
+      </c>
+      <c r="D11" s="1">
+        <v>852</v>
+      </c>
+      <c r="E11" s="1">
+        <v>25.47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1">
+        <v>82</v>
+      </c>
+      <c r="C12" s="1">
+        <v>92.83</v>
+      </c>
+      <c r="D12" s="1">
+        <v>771</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="34">
+        <v>89</v>
+      </c>
+      <c r="C13" s="34">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1064</v>
+      </c>
+      <c r="C16" s="1">
+        <v>26.41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1119</v>
+      </c>
+      <c r="C17" s="1">
+        <v>25.74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1172</v>
+      </c>
+      <c r="C18" s="1">
+        <v>22.27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>805</v>
+      </c>
+      <c r="C19" s="1">
+        <v>30.43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>734</v>
+      </c>
+      <c r="C20" s="1">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1">
+        <v>860</v>
+      </c>
+      <c r="C21" s="1">
+        <v>23.37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1">
+        <v>881</v>
+      </c>
+      <c r="C22" s="1">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1003</v>
+      </c>
+      <c r="C23" s="1">
+        <v>19.84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1">
+        <v>807</v>
+      </c>
+      <c r="C24" s="1">
+        <v>23.42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1">
+        <v>852</v>
+      </c>
+      <c r="C25" s="1">
+        <v>25.47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
+        <v>771</v>
+      </c>
+      <c r="C26" s="1">
+        <v>10.64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>